--- a/Data/Excels/RefExample/001-RefOneConfig.xlsx
+++ b/Data/Excels/RefExample/001-RefOneConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD6F991-A114-C740-A981-B0DC53840F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42AFB0-7F88-9844-A580-857641279892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="560" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>int#range=[100,199]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -415,6 +419,9 @@
       </c>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4">
         <v>100</v>
       </c>
